--- a/all_stocks.xlsx
+++ b/all_stocks.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1095"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="E526" sqref="E526"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36399,6 +36399,9 @@
       <c r="A450" s="2">
         <v>43759</v>
       </c>
+      <c r="B450">
+        <v>2146.38</v>
+      </c>
       <c r="C450">
         <v>2.0750000000000002</v>
       </c>
@@ -76316,6 +76319,9 @@
       <c r="A949" s="2">
         <v>44498</v>
       </c>
+      <c r="B949">
+        <v>2194.14</v>
+      </c>
       <c r="C949">
         <v>2.5499999999999998</v>
       </c>
@@ -84472,6 +84478,9 @@
     <row r="1051" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1051" s="2">
         <v>44645</v>
+      </c>
+      <c r="B1051">
+        <v>2036.94</v>
       </c>
       <c r="C1051">
         <v>2.2000000000000002</v>
